--- a/DATA_goal/Junction_Flooding_313.xlsx
+++ b/DATA_goal/Junction_Flooding_313.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44994.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>49.63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.11</v>
+        <v>41.06</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.17</v>
+        <v>61.72</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>27.31</v>
+        <v>273.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.13</v>
+        <v>51.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.41</v>
+        <v>34.14</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.62</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.03</v>
+        <v>20.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44994.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44994.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.17</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.49</v>
+        <v>34.91</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.14</v>
+        <v>141.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.16</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.75</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.1</v>
+        <v>31.04</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44994.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.2</v>
+        <v>51.95</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.3</v>
+        <v>42.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.1</v>
+        <v>70.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.9</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.2</v>
+        <v>21.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.25</v>
+        <v>52.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.53</v>
+        <v>35.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.49</v>
+        <v>34.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.92</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.43</v>
+        <v>64.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_313.xlsx
+++ b/DATA_goal/Junction_Flooding_313.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,34 +655,34 @@
         <v>44994.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.3</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.24</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.63</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.06</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.72</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.16</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>19.59</v>
@@ -691,67 +691,67 @@
         <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.92</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.95</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.81</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.6</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.07</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.31</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.14</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.29</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.62</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.74</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.3</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.59</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
@@ -759,16 +759,16 @@
         <v>44994.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.51</v>
+        <v>2.512</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>2.12</v>
@@ -777,58 +777,58 @@
         <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.61</v>
+        <v>12.613</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.648</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.903</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.629</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.221</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.507</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.628</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.02</v>
+        <v>10.017</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.79</v>
+        <v>3.793</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.37</v>
+        <v>2.375</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>5.25</v>
@@ -837,25 +837,25 @@
         <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.077</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.194</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.88</v>
+        <v>11.876</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>44994.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.49</v>
+        <v>12.491</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.94</v>
+        <v>8.936</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.77</v>
+        <v>26.766</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.17</v>
+        <v>22.169</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>9.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.91</v>
+        <v>34.913</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.555</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>9.94</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.77</v>
+        <v>10.769</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.23</v>
+        <v>11.231</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.14</v>
+        <v>3.136</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.77</v>
+        <v>13.768</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.356</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.055</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.42</v>
+        <v>141.422</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>27.16</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>18.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.75</v>
+        <v>9.746</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.193</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.89</v>
+        <v>16.888</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.18</v>
+        <v>7.179</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.41</v>
+        <v>8.413</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.04</v>
+        <v>31.036</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.02</v>
+        <v>5.023</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>11.28</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>21.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44994.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.62</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_313.xlsx
+++ b/DATA_goal/Junction_Flooding_313.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -967,67 +967,67 @@
         <v>44994.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.71</v>
+        <v>17.712</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.36</v>
+        <v>1.361</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>51.95</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.98</v>
+        <v>42.984</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.97</v>
+        <v>70.973</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.91</v>
+        <v>12.912</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.34</v>
+        <v>19.345</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.9</v>
+        <v>20.898</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.96</v>
+        <v>21.957</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.76</v>
+        <v>26.756</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.79</v>
+        <v>15.793</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.81</v>
+        <v>278.814</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.53</v>
+        <v>52.533</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>35.34</v>
@@ -1036,34 +1036,138 @@
         <v>18.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.39</v>
+        <v>2.387</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.86</v>
+        <v>34.861</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.59</v>
+        <v>13.591</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.92</v>
+        <v>21.919</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>64.28</v>
+        <v>64.28100000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.792999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44994.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>164.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_313.xlsx
+++ b/DATA_goal/Junction_Flooding_313.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -967,67 +967,67 @@
         <v>44994.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.021</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.712</v>
+        <v>17.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.361</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>51.95</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.984</v>
+        <v>42.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.904</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.973</v>
+        <v>70.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.086</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.912</v>
+        <v>12.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.345</v>
+        <v>19.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.898</v>
+        <v>20.9</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.957</v>
+        <v>21.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.038</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.798</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.756</v>
+        <v>26.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.793</v>
+        <v>15.79</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.814</v>
+        <v>278.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.533</v>
+        <v>52.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.351</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>35.34</v>
@@ -1036,138 +1036,34 @@
         <v>18.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.387</v>
+        <v>2.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.861</v>
+        <v>34.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.326</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.591</v>
+        <v>13.59</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>15.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.919</v>
+        <v>21.92</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>64.28100000000001</v>
+        <v>64.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.792999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.693</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44994.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.62</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.45</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.02</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>
